--- a/Alapok_2.xlsx
+++ b/Alapok_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nyfcloud-my.sharepoint.com/personal/fabian_gabor_nyfbox_hu/Documents/GitHub/Bevezetes-az-informatikaba/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\GitHub\Bevezetes-az-informatikaba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7689B233-AEA0-4E2E-B85A-67C5B406BB1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011CF703-8FE9-46F9-A3D0-841AB092248E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Másodfokú egyenlet" sheetId="13" r:id="rId1"/>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1049,6 +1049,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1067,7 +1068,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1997,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2033,13 +2033,13 @@
     </row>
     <row r="4" spans="2:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="24"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="27"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2655,11 +2655,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -2894,11 +2894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2908,12 +2908,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2950,7 +2950,7 @@
       <c r="E4" s="11">
         <v>12</v>
       </c>
-      <c r="F4" s="80" t="str">
+      <c r="F4" s="74" t="str">
         <f>IF(E4=A4,"Ok","HIBA")</f>
         <v>Ok</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="E5" s="11">
         <v>150</v>
       </c>
-      <c r="F5" s="80" t="str">
+      <c r="F5" s="74" t="str">
         <f>IF(E5=A5,"Ok","HIBA")</f>
         <v>Ok</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="E6" s="12">
         <v>65</v>
       </c>
-      <c r="F6" s="80" t="str">
+      <c r="F6" s="74" t="str">
         <f>IF(E6=A6,"Ok","HIBA")</f>
         <v>Ok</v>
       </c>
@@ -3009,49 +3009,49 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="74" t="s">
         <v>74</v>
       </c>
       <c r="C10">
         <f>E$4*C$5*D$6 + C$4*D$5*E$6 + D$4*E$5*C$6 - D$4*C$5*E$6 - C$4*E$5*D$6 - E$4*C$6*D$5</f>
         <v>-8742</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="74">
         <f>C10/C$9</f>
         <v>6.2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="74" t="s">
         <v>75</v>
       </c>
       <c r="C11">
         <f>B$4*E$5*D$6 + E$4*D$5*B$6 + D$4*B$5*E$6 - D$4*E$5*B$6 - E$4*B$5*D$6 - B$4*E$6*D$5</f>
         <v>-9024</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="74">
         <f>C11/C$9</f>
         <v>6.4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="74" t="s">
         <v>76</v>
       </c>
       <c r="C12">
         <f>B$4*C$5*E$6 + C$4*E$5*B$6 + E$4*B$5*C$6 - E$4*C$5*B$6 - C$4*B$5*E$6 - B$4*C$6*E$5</f>
         <v>-15792</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="74">
         <f>C12/C$9</f>
         <v>11.2</v>
       </c>
@@ -3068,7 +3068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H51"/>
   <sheetViews>
     <sheetView topLeftCell="C22" workbookViewId="0">
@@ -3562,6 +3562,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100B9F203DB2246394FB9244D225193BF27" ma:contentTypeVersion="2" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="b54bf5080c6055aa7b471942360b5978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e7f3ffa9-493d-4514-a433-48d28d4fe8da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="edcb34f309be6201bcfec24d5821e798" ns3:_="">
     <xsd:import namespace="e7f3ffa9-493d-4514-a433-48d28d4fe8da"/>
@@ -3693,22 +3708,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92070718-6F3D-43BE-8BEE-AE396913793E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e7f3ffa9-493d-4514-a433-48d28d4fe8da"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{744E2C47-6404-43FE-8ADD-BDFA37C52988}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA56A84-7C4C-4B78-A94A-BE8B1869A779}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3724,28 +3748,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{744E2C47-6404-43FE-8ADD-BDFA37C52988}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92070718-6F3D-43BE-8BEE-AE396913793E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e7f3ffa9-493d-4514-a433-48d28d4fe8da"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Alapok_2.xlsx
+++ b/Alapok_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\GitHub\Bevezetes-az-informatikaba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nyfcloud-my.sharepoint.com/personal/fabian_gabor_nyfbox_hu/Documents/GitHub/Bevezetes-az-informatikaba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011CF703-8FE9-46F9-A3D0-841AB092248E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{011CF703-8FE9-46F9-A3D0-841AB092248E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1C33FC13-44CF-4446-A2E6-EDE5C1450505}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Másodfokú egyenlet" sheetId="13" r:id="rId1"/>
@@ -562,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -699,6 +699,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -916,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1068,11 +1075,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2624,10 +2648,10 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B4:B44">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>$B$46</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>$B$45</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2895,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2907,7 +2931,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="78" t="s">
         <v>11</v>
       </c>
@@ -2915,8 +2939,8 @@
       <c r="D1" s="79"/>
       <c r="E1" s="80"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -2933,127 +2957,163 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>B4*F$10+C4*F$11+D4*F$12</f>
-        <v>11.999999999999986</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
-        <v>6</v>
-      </c>
       <c r="E4" s="11">
-        <v>12</v>
-      </c>
-      <c r="F4" s="74" t="str">
+        <v>10</v>
+      </c>
+      <c r="F4" s="81" t="str">
         <f>IF(E4=A4,"Ok","HIBA")</f>
         <v>Ok</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>B5*F$10+C5*F$11+D5*F$12</f>
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="11">
-        <v>150</v>
-      </c>
-      <c r="F5" s="74" t="str">
+        <v>11</v>
+      </c>
+      <c r="F5" s="81" t="str">
         <f>IF(E5=A5,"Ok","HIBA")</f>
         <v>Ok</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>B6*F$10+C6*F$11+D6*F$12</f>
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" s="14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="12">
-        <v>65</v>
-      </c>
-      <c r="F6" s="74" t="str">
+        <v>12</v>
+      </c>
+      <c r="F6" s="81" t="str">
         <f>IF(E6=A6,"Ok","HIBA")</f>
         <v>Ok</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9">
         <f>B$4*C$5*D$6 + C$4*D$5*B$6 + D$4*B$5*C$6 - D$4*C$5*B$6 - C$4*B$5*D$6 - B$4*C$6*D$5</f>
-        <v>-1410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="74" t="s">
         <v>74</v>
       </c>
       <c r="C10">
         <f>E$4*C$5*D$6 + C$4*D$5*E$6 + D$4*E$5*C$6 - D$4*C$5*E$6 - C$4*E$5*D$6 - E$4*C$6*D$5</f>
-        <v>-8742</v>
+        <v>0</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>77</v>
       </c>
       <c r="F10" s="74">
         <f>C10/C$9</f>
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="74" t="s">
         <v>75</v>
       </c>
       <c r="C11">
         <f>B$4*E$5*D$6 + E$4*D$5*B$6 + D$4*B$5*E$6 - D$4*E$5*B$6 - E$4*B$5*D$6 - B$4*E$6*D$5</f>
-        <v>-9024</v>
+        <v>27</v>
       </c>
       <c r="E11" s="74" t="s">
         <v>78</v>
       </c>
       <c r="F11" s="74">
         <f>C11/C$9</f>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="74" t="s">
         <v>76</v>
       </c>
       <c r="C12">
         <f>B$4*C$5*E$6 + C$4*E$5*B$6 + E$4*B$5*C$6 - E$4*C$5*B$6 - C$4*B$5*E$6 - B$4*C$6*E$5</f>
-        <v>-15792</v>
+        <v>-28</v>
       </c>
       <c r="E12" s="74" t="s">
         <v>79</v>
       </c>
       <c r="F12" s="74">
         <f>C12/C$9</f>
-        <v>11.2</v>
+        <v>9.3333333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -3061,6 +3121,14 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="F4:F6">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Ok">
+      <formula>NOT(ISERROR(SEARCH("Ok",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Hiba">
+      <formula>NOT(ISERROR(SEARCH("Hiba",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3711,14 +3779,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92070718-6F3D-43BE-8BEE-AE396913793E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="e7f3ffa9-493d-4514-a433-48d28d4fe8da"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
